--- a/uploads/Data Science.xlsx
+++ b/uploads/Data Science.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,9 +413,459 @@
         <v>Category</v>
       </c>
     </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+WORKING RF SYSTEMS ENGINEER
+Qualifications
+Microsoft office/Office for Mac, pages, numbers, keynote Â· RF/Microwave software: Ansoft Designer, AWR Microwave Office. Â· RF test
+instruments: Spectrum analyzer, Vector Network/Signal Analyzer, Logic Analyzer, etc. Â· Programming language: C/C++, Python, Java,
+Matlab, and LabView Â· Circuit design software: SPICE, NI Multisim Â· PCB design software: Eagle, PCB Artiest
+Experience
+Working RF Systems Engineer 
+May 2014 to Current Company Name
+Qualification Â· Multidisciplinary background: RF hardware designs, manufacturing operations and data analyst.
+Summary Â· Experienced in developing hardware's DFM procedures, checklists and requirements to subcontractors Â· Perform EVT,
+DVT, PVT verifications and utilize FA process to drive root cause from system to unit level Â· Team leader on multiple end-to-end
+technical project design, development, testing and validation Â· Manage Test/Production readiness reviews and drives quality requirement
+for post-ramp qualification Â· Ability to manage multiple projects simultaneously, self-starter with innovation and sharp attention to details
+Experiences - New RF systems introduction on satellite communication architecture designs and proposals - Define RF hardware unit DFM
+procedures and requirements for Antenna, receivers, filters, and amplifiers - Lead suppliers by providing technical design specifications and
+testing requirements to meet SSL standards - Utilize FA process to monitor overall project field performance.
+Audits and DFM reviews on-site with suppliers - Investigated the algorithm to optimize the overall RF system performance for design,
+manufacturing and testing - Perform EVT, DVT and PVT validations and quality measurements for satellite assembly at system and unit
+levels - Drive and track closure on any RF components and modules NCs and issues impact to production readiness - Work with cross-
+functional teams to execute completion of satellite system design to fulfill contract requirement - Generate cascade RF performance
+prediction analyses (i.e.
+NF, Gain, IP3, 1dB-Comp, spurious, etc) - Exercises independent judgment in developing methods, techniques, and evaluation criterion for
+obtaining results - Monitor and measure manufacturing processes to reduce losses, decrease time span and improve quality.
+System Data Analyst 
+August 2011 to December 2013 Company Name
+Prioritize and extract big data from Purdue University's SQL database and maintain its accuracy and completeness - Develop and
+implement data collection systems strategies that optimize statistical efficiency and data quality - Data manipulation language SQL
+commands and utilize statistical tools including Excel, SAS, and SPSS.
+Create complex charts and temporarily databases, perform data mining, and develop pivot tables for publication - Design and customize
+reports based upon data structure and determine additional data collection requirements - Provide documentation based on audit and report
+criteria to investigators and research staff - Serve as a resource for non-routine inquiries such as requests for statistics or surveys.
+Electrical/Validation Engineer 
+May 2011 to August 2011 Company Name
+Develop and maintain data requirement for PCBA EVT, DVT, and PVT assembly for touch-pads - Design and implement automated test
+for sensitivity, packrat, hovering, profiles, ripple, GSM, EMI, and ESD - Monitor manufacturer IC packaging test yields and field return
+failure data to identify root cause - Develop in-depth reliability testing procedures: storage, thermal stock, drop and tap tests - Perform
+debug and troubleshooting of product in house and at contract manufacturer site for support - Contribute in manufacturing diagnostic
+reviews to improve overall debug process more efficiently and effectively - Support internal and external customer related to lab data
+collection and verification of an application issue.
+Education
+M.S : Electrical and Computer Engineering , Dec. 2013 PURDUE UNIVERSITY GPA: GPA: 3.9/4.0 Electrical and Computer Engineering GPA:
+3.9/4.0
+B.S : Electrical and Computer Engineering , Dec. 2011 GPA: GPA: 3.2/4.0 Electrical and Computer Engineering GPA: 3.2/4.0 Thesis The Design
+and Evaluation of a 5.8 GHz Laptop-Based Radar System Publication Â· Innovative laptop radar design to operate in both FMCW and CW
+mode Â· Doppler shift (DTI), ranging (RTI), and SAR measurement capability Â· Operate in ISM frequency band with +13dBm transmitting
+power Â· Data acquisition and signal processing using Matlab
+Skills
+big data, C, C++, charts, Circuit design, hardware, Data acquisition, data analyst, data collection, data mining, databases, database, dBm, DTI,
+design software, documentation, functional, GSM, innovation, Java, LabView, Team leader, Logic Analyzer, Mac, manufacturing processes,
+Matlab, Excel, Microsoft office, Office, Microwave, Radar, NCs, Network, dB, packaging, pivot tables, Programming, project design, proposals,
+Publication, Python, quality, requirement, research, SAS, self-starter, Spectrum analyzer, SPSS, SQL, SSL, statistics, surveys, system design,
+troubleshooting, validation</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Data Science</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+MASTER DATA MANAGER
+Experience
+Master Data Manager , 01/2019 to Current 
+Company Name â€“ City , State 
+Aligning 100+ supply chain-related master data attributes to ensure the following guidelines are met:.
+Data Stewardship - Appropriate business units and ownership established to validate appropriate values, definitions and impact
+documentation for all master data fields.
+Data Quality - Applicable controls are set in conjecture with IT to ensure that a proactive approach is taken to new master data.
+Additionally, RPA process planned for Phase 2 to automate structured data entry and maintenance.
+Data Integrity/Data Warehousing - Structure business logic to ensure BOMs and other data relationships are both accessible and built as an
+asset for the business.
+Additionally, a Data Sync SOP was established for GS1 standardization.
+Reporting - Automate data quality reporting for executive staff to ensure 99.8% compliance is adhered to throughout the organization.
+Additionally, provide ad-hoc tools for the business to leverage clean data cubes.
+Data Governance Committee - Oversee executive strategy in institutional master data to commit to trusted, accurate, structured and
+meaningful master data.
+Engaging applicable stakeholders to promote data governance, data architect, data stewardship and data security the data governance
+committee oversees the framework for complex supply chain manufacturing operations.
+Director of Information Technology , 01/2017 to 01/2019 
+Company Name â€“ City , State 
+Supply Chain Management - Warehouse, 3PL, Food Services, Served as the corporate Project Manager, overseeing all implementations
+(WMS, ERP, QMS, CMMS, infrastructure).
+Responsibilities included progress reporting, budget control, task delegation, plan creation, vendor coordination, etc.
+Developed a range of documents and performed project selection tasks such as workflow process maps, system integration documents,
+infrastructure topology, organizational policies, GDPR, UAT, gap analysis, best fit models and user training manuals.
+Deployed and managed BI products to leverage company-wide data for decisionmakers, proactive analysis, and real-time resource
+planning.
+Utilizing SSRS/PowerBI to analyze sets of data across multiple databases, automate value-add reporting to 3PL clients, visualize KPIs thru
+the organization, create workflows for document automation and create alerts for various business units.
+Launched a high-performance data warehouses and virtual machines to store, integrate, analyze, and report on enterprise data.
+An array of SSAS cubes were deployed to allow for end-user ad-hoc tabular reports.
+Additionally, a complex network of interfaces between 6+ enterprise systems, 4 SQL databases, 1 Oracle database, and other enterprise
+systems (file server, exchange, EDI, etc) was implemented to support the ETL process.
+Executing infrastructure refresh for a 200,000 sqft industrial/production facility.
+The deployment includes an array of 15 switches, 1,000 cable runs, racking, 100 AP, 300 cameras, NVRs, controllers, and creating floor
+plans and topology documents.
+Controlled a $2MM IT budget, short-term and long-term strategies, and CapEx justification across the business.
+Including selecting and negotiating with vendors, promoting operational process improvement, instituting best practices, and developing IT
+roadmaps and strategic plans.
+On track to reduce IT spend by $250K by renegotiating vendor contracts, consolidating cloud services, implementing automation tools and
+upgrading legacy systems.
+Responsible for a team of IT professionals and vendors assigned to all corporate and local office systems, including ERP, WMS, logistics
+systems, data centers, servers and storage, PCs, mobile devices, BDR, telecom, and help desk.
+Reduced IT service desk's response time and resolution time while increasing knowledge base and reducing reoccurring tickets by over
+50%.
+Information Technology Governance &amp; Steering Committee (ITGSC) - Reporting directly to the board of directors, the ITGSC provided
+strategic direction in aligning IT projects to shareholder interest and long-term targets.
+While overseeing the committee the cross-functional team guided 12 business units across operations, sales, and manufacturing.
+Additionally, the ITGSC aided in risk management, business continuity, and organizational SOPs.
+NatJan Solutions (Facility Management - Retail, Medical, Grocery Sectors.
+Information Technology and Analytics Manager , 01/2014 to 01/2017 
+Implemented process within external ERP portal to monetize 1000's of vendors to generate lean revenue based on financial and operational
+data analysis.
+This program is estimated to bring in $325,000 in its first year, an 8% increase in margin.
+Created ad-hoc and scheduled BI (PowerBI/SSRS) reports to visualize critical client metrics and reports, internal performance KPIs,
+operational resource planning, asset and revenue forecasting, P/L summaries, expense budgets, etc.
+Spearheaded national RFP bids of multi-million-dollar procurement deals with several Fortune 500 retail, medical, and education
+companies.
+Tasks included sales analysis, margin analysis, multivariable pricing structures, vendor acquisition, developing process flow and establishing
+KPI reporting for clientele and internal use.
+Designed ad-hoc SQL views, stored proceduresand reports to address company-wide data analysis and modeling.
+Utilized advanced VBA programming and automation software to manage two billing systems, saving an estimated $75,000 in Salary
+Expenses in 2015, translating to a 40% reduction in departmental spending.
+Reported on a wide array of KPIs on operations, sales, accounting, and vendors via dashboard-style (BI/SSRS) reports for COO, CFO,
+Vice President of Sales and Account Manager use.
+Overhauled all company technology from on-premise systems to an array of cloud solutions, including replacing hardware and migrating
+servers and databases, this renovation saves ~$108,000 per year and provides long-term scalability.
+01/2015 to 01/2017 
+Company Name â€“ City , State 
+Co-Founded indoor, hydroponic farming company in South Jersey.
+Bringing a hyper-local product to the Camden and Philadelphia region HGF generated $100K in its first year via a strategic relationship with
+the premier food management service in Philadelphia, local restaurants, farmer's markets, and Whole Foods retail chain.
+Sales &amp; Operations Planning (S&amp;OP) - The S&amp;OP team managed bi-directional interactions between sales, marketing, production, and
+finance.
+S&amp;OP committee oversaw finished goods inventory controls, marketing vs financial targets, raw material and supplier management, logistics
+and human capital planning.
+Additionally, benchmarks for product mix, SKU management, and forecast vs demand vs actual alignment.
+Operations - Oversaw the general operations of the farm, including assigning day-to-day jobs, tracking yield results, establishing daily work
+schedules, and tracking transplanting/harvesting schedules.
+Automation Systems - Implemented an array of sensors to control environmental and nutrient levels.
+Utilizing this data and automation systems we drove automated pH balancing, nutrient leveling, temperature control, ventilation systems, and
+established a strong exception-based manufacturing operation.
+Finance - Oversaw all aspects of the financial responsibilities including establishing a point of sales systems, P/L reports, budgeting for OpEx
+and CapEx schedules, coordinating with lenders, insurance institutions and annual tax reports.
+SOPs - Instituted standard operating procedures to ensure quality standards are maintained and product consistency is maintained.
+Work History
+Master Data Manager , 01/2019 to Current 
+Company Name â€“ City , State 
+Aligning 100+ supply chain-related master data attributes to ensure the following guidelines are met:.
+Data Stewardship - Appropriate business units and ownership established to validate appropriate values, definitions and impact
+documentation for all master data fields.
+Data Quality - Applicable controls are set in conjecture with IT to ensure that a proactive approach is taken to new master data.
+Additionally, RPA process planned for Phase 2 to automate structured data entry and maintenance.
+Data Integrity/Data Warehousing - Structure business logic to ensure BOMs and other data relationships are both accessible and built as an
+asset for the business.
+Additionally, a Data Sync SOP was established for GS1 standardization.
+Reporting - Automate data quality reporting for executive staff to ensure 99.8% compliance is adhered to throughout the organization.
+Additionally, provide ad-hoc tools for the business to leverage clean data cubes.
+Data Governance Committee - Oversee executive strategy in institutional master data to commit to trusted, accurate, structured and
+meaningful master data.
+Engaging applicable stakeholders to promote data governance, data architect, data stewardship and data security the data governance
+committee oversees the framework for complex supply chain manufacturing operations.
+Director of Information Technology , 01/2017 to 01/2019 
+Company Name â€“ City , State 
+Supply Chain Management - Warehouse, 3PL, Food Services, Served as the corporate Project Manager, overseeing all implementations
+(WMS, ERP, QMS, CMMS, infrastructure).
+Responsibilities included progress reporting, budget control, task delegation, plan creation, vendor coordination, etc.
+Developed a range of documents and performed project selection tasks such as workflow process maps, system integration documents,
+infrastructure topology, organizational policies, GDPR, UAT, gap analysis, best fit models and user training manuals.
+Deployed and managed BI products to leverage company-wide data for decisionmakers, proactive analysis, and real-time resource
+planning.
+Utilizing SSRS/PowerBI to analyze sets of data across multiple databases, automate value-add reporting to 3PL clients, visualize KPIs thru
+the organization, create workflows for document automation and create alerts for various business units.
+Launched a high-performance data warehouses and virtual machines to store, integrate, analyze, and report on enterprise data.
+An array of SSAS cubes were deployed to allow for end-user ad-hoc tabular reports.
+Additionally, a complex network of interfaces between 6+ enterprise systems, 4 SQL databases, 1 Oracle database, and other enterprise
+systems (file server, exchange, EDI, etc) was implemented to support the ETL process.
+Executing infrastructure refresh for a 200,000 sqft industrial/production facility.
+The deployment includes an array of 15 switches, 1,000 cable runs, racking, 100 AP, 300 cameras, NVRs, controllers, and creating floor
+plans and topology documents.
+Controlled a $2MM IT budget, short-term and long-term strategies, and CapEx justification across the business.
+Including selecting and negotiating with vendors, promoting operational process improvement, instituting best practices, and developing IT
+roadmaps and strategic plans.
+On track to reduce IT spend by $250K by renegotiating vendor contracts, consolidating cloud services, implementing automation tools and
+upgrading legacy systems.
+Responsible for a team of IT professionals and vendors assigned to all corporate and local office systems, including ERP, WMS, logistics
+systems, data centers, servers and storage, PCs, mobile devices, BDR, telecom, and help desk.
+Reduced IT service desk's response time and resolution time while increasing knowledge base and reducing reoccurring tickets by over
+50%.
+Information Technology Governance &amp; Steering Committee (ITGSC) - Reporting directly to the board of directors, the ITGSC provided
+strategic direction in aligning IT projects to shareholder interest and long-term targets.
+While overseeing the committee the cross-functional team guided 12 business units across operations, sales, and manufacturing.
+Additionally, the ITGSC aided in risk management, business continuity, and organizational SOPs.
+NatJan Solutions (Facility Management - Retail, Medical, Grocery Sectors.
+Information Technology and Analytics Manager , 01/2014 to 01/2017 
+Implemented process within external ERP portal to monetize 1000's of vendors to generate lean revenue based on financial and operational
+data analysis.
+This program is estimated to bring in $325,000 in its first year, an 8% increase in margin.
+Created ad-hoc and scheduled BI (PowerBI/SSRS) reports to visualize critical client metrics and reports, internal performance KPIs,
+operational resource planning, asset and revenue forecasting, P/L summaries, expense budgets, etc.
+Spearheaded national RFP bids of multi-million-dollar procurement deals with several Fortune 500 retail, medical, and education
+companies.
+Tasks included sales analysis, margin analysis, multivariable pricing structures, vendor acquisition, developing process flow and establishing
+KPI reporting for clientele and internal use.
+Designed ad-hoc SQL views, stored procedures and reports to address company-wide data analysis and modeling.
+Utilized advanced VBA programming and automation software to manage two billing systems, saving an estimated $75,000 in Salary
+Expenses in 2015, translating to a 40% reduction in departmental spending.
+Reported on a wide array of KPIs on operations, sales, accounting, and vendors via dashboard-style (BI/SSRS) reports for COO, CFO,
+Vice President of Sales and Account Manager use.
+Overhauled all company technology from on-premise systems to an array of cloud solutions, including replacing hardware and migrating
+servers and databases, this renovation saves ~$108,000 per year and provides long-term scalability.
+01/2015 to 01/2017 
+Company Name â€“ City , State 
+Co-Founded indoor, hydroponic farming company in South Jersey.
+Bringing a hyper-local product to the Camden and Philadelphia region HGF generated $100K in its first year via a strategic relationship with
+the premier food management service in Philadelphia, local restaurants, farmer's markets, and Whole Foods retail chain.
+Sales &amp; Operations Planning (S&amp;OP) - The S&amp;OP team managed bi-directional interactions between sales, marketing, production, and
+finance.
+S&amp;OP committee oversaw finished goods inventory controls, marketing vs financial targets, raw material and supplier management, logistics
+and human capital planning.
+Additionally, benchmarks for product mix, SKU management, and forecast vs demand vs actual alignment.
+Operations - Oversaw the general operations of the farm, including assigning day-to-day jobs, tracking yield results, establishing daily work
+schedules, and tracking transplanting/harvesting schedules.
+Automation Systems - Implemented an array of sensors to control environmental and nutrient levels.
+Utilizing this data and automation systems we drove automated pH balancing, nutrient leveling, temperature control, ventilation systems, and
+established a strong exception-based manufacturing operation.
+Finance - Oversawall aspects of the financial responsibilities including establishing a point of sales systems, P/L reports, budgeting for OpEx
+and CapEx schedules, coordinating with lenders, insurance institutions and annual tax reports.
+SOPs - Instituted standard operating procedures to ensure quality standards are maintained and product consistency is maintained.
+Education
+Bachelor of Science : Management of Information Systems , 2017 
+Associates of Science : Accounting , 2015 
+Rowan College 
+Pursuing Project Management Professional (PMP) certification Rowan University 
+Summary
+Zeel Patel is an Information Technology Manager with a focus on IT transformation and process improvement currently looking for opportunities in
+the greater Miami, FL metropolitan area. Zeel has experience working with corporate data in the areas of data presentation, structured and
+unsecured datasets, data mining, statistical analysis, UI creation, data warehouse management, and assessing data quality. Additionally, Zeel's
+diverse background has allowed him to succeed in a project management and IT management role. In this role, Zeel has engaged in holistic
+business analysis, process improvement, strategic planning, budgeting, contract negotiations, vendor relations, resource management, instituting
+best practices, and overseeing/implementing multiple enterprise systems (ERP, WMS, CRM, WOM, QMS, SCP).
+Highlights
+Automation tools, HTML, Retail
+Microsoft Office Suite with deep Office 365, Dynamics 365, Project, PowerApps, PowerBI,
+Flow,
+Sharepoint, Excel, Access, Intune, Visio, EMS, and Azure proficiency
+Programming/Databases: SQL (SSRS, SSIS, SSAS), VBA, DAX, HTML, CSS, VBA,
+VB.NET, R, Powershell, Python, Oracle
+Business Intelligence Packages: PowerBI, Qlik (QlikView/QlikSense), SiSense, Tableau,
+Datorama, Yellowfin, Crystal, SSRS
+Strong knowledge of AWS, Azure, Cisco Switch Management, VMWare, Hyper-V, RDP,
+Automation Anywhere, Active Directory,
+And hardware and software administration for iOS, Android, Windows, Red Hat Linux, RF
+devices
+VB.NET, EDI, Procurement, Ventilation
+Accounting, ERP, Programming, Visio
+Active Directory, ETL, Progress, VBA
+Premier, Facility Management, Project Management, Workflow
+Ad, Finance, Python
+AP, Financial, Quality
+Approach, Floor plans, Real-time
+Architect, Forecasting, Red Hat Linux
+Automate, Functional, Renovation
+Automation, Help desk, Reporting
+Automation tools, HTML, Retail
+Billing systems, Information
+Technology, RFP
+Budgeting, Insurance, Risk
+management
+Budgets, Inventory, Sales
+Budget, Logic, Sales analysis
+BI, Logistics, Servers
+Business Intelligence, Marketing,
+SOP
+Cable, Access, SQL
+Cisco, Excel, Strategy
+Hardware, Exchange, Strategic
+Contracts, Microsoft Office Suite,
+Strategic plans
+Crystal, Office, Structured
+CSS, Sharepoint, Supplier
+management
+Clientele, Windows, Supply chain
+Client, Negotiating, Supply Chain
+Management
+Clients, Enterprise, Switches
+Data analysis, Network, Switch
+Data entry, Oracle, System
+integration
+Data analysis and modeling, Oracle
+database, Tableau
+Data warehouses, Organizational,
+Tax
+Databases, Cameras, User training
+Data Warehousing, Policies,
+Telecom
+Direction, Pricing, Translating
+Documentation, Process
+improvement, Upgrading
+Skills
+Microsoft Office Suite with deep Office 365, Dynamics 365, Project, PowerApps, PowerBI, Flow,
+SSharepoint, Excel, Access, Intune, Visio, EMS, and Azure proficiency
+PProgramming/Databases: SQL (SSRS, SSIS, SSAS), VBA, DAX, HTML, CSS, VBA, VB.NET, R, Powershell, Python, Oracle
+BBusiness Intelligence Packages: PowerBI, Qlik (QlikView/QlikSense), SiSense, Tableau, Datorama, Yellowfin, Crystal, SSRS
+SStrong knowledge of AWS, Azure, Cisco Switch Management, VMWare, Hyper-V, RDP, Automation Anywhere, Active Directory,
+Aand hardware and software administration for iOS, Android, Windows, Red Hat Linux, RF devices,
+VB.NET, accounting, Active Directory, premier, ad, AP, approach, architect, Automate, Automation, automation tools, billing systems,
+budgeting, budgets, budget, BI, Business Intelligence, cable, Cisco, hardware, contracts, Crystal, CSS, clientele, client, clients, data analysis, data
+entry, data analysis and modeling, data warehouses, Databases, Data Warehousing, direction, documentation, EDI, ERP, ETL, Facility
+Management, Finance, financial, floor plans, forecasting, functional, help desk, HTML, Information Technology, insurance, inventory, logic,
+logistics, marketing, Access, Excel, exchange, Microsoft Office Suite, Office, Sharepoint, Windows, negotiating, enterprise, network, Oracle,
+Oracle database, organizational, cameras, policies, pricing, process improvement, procurement, Programming, progress, Project Management,
+Python, Quality, real-time, Red Hat Linux, renovation, reporting, Retail, RFP, risk management, Sales, sales analysis, servers, SOP, SQL,
+strategy, strategic, strategic plans, structured, supplier management, supply chain, Supply Chain Management, switches, Switch, system integration,
+Tableau, tax, user training, telecom, translating, upgrading, ventilation, Visio, VBA, workflow</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Data Science</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4">
+        <v>112</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+SUBJECT MATTER EXPERT (INFORMATION TECHNOLOGY ASSISTANT)
+Qualifications
+SAP, HP ALM, Network Configuration, Database Management, Document Management, Troubleshooting / Resolution, System Development
+&amp; Execution, End-user Training, End-user Training, Customer Service, Website Maintenance, Mac, AUTOCAD
+Relevant Experience
+Recognized as 1 of top 4 agents, promoted twice for excellent customer service
+Experience
+Subject Matter Expert (Information Technology Assistant) 
+September 2013 to Current Company Name ï¼​ City , State Responsibilities: -SAP Data Validation and Population for Real Estate, Fixed Asset
+and Plant Maintenance Modules -Assist, Support and coordinate with Missions to create Database/ SAP IDs for testing / enrichment of loaded
+data. -Validate data extracted from legacy databases. -Communicate with missions to confirm/ clarify submitted data. -Assist in extraction and
+validation of mission data -Create automated data validation spreadsheets/templates -Prepare data for upload into Umoja performing required
+calculations and adjustments. -Run LSMW's, in order to upload Entities data into SAP, during Conversion process. -Validate data loaded into
+Umoja. -Run Reports and Edit Mission Data in SAP. -Create manuals, guidlines, instructions and cheat sheets for data conversion and testing
+processes -Develop Excel spreadsheets to calculate and show the statistics of reoccurring problems. -Prepare test scenarios in HP/ALM and
+populate the input data accordingly. -Coordinate with other functional teams for the preparation of scenarios, input data and execution of test
+scripts. -Organise testing sessions with extended-team testers. -Execute test scenarios as part of the Umoja team and guide the extended-team
+testers in the execution. -Identify and raise defects, and coordinate with responsible teams -Re-test failed scripts after defect resolution. -Creation
+of Training Materials for Data Validation and Testing in SAP -SAP Test script authoring, execution and defect resolution for Product Integration
+Testing and User Verification Testing -Supported Tier 3 Production Support Activities Accomplishments: -Created template and assisted in
+creation of reports to help automate formatting of data, for easier LSMW uploads, which reduced the time needed for preparation of data to 1
+hour and eliminated transfer errors -Created automated Data Validation Spreadsheet, to decrease validation time by 40% and improve quality of
+the validation by enabling focus on substantive, rather than mechanical errors. - Successfully Completed data conversion and load activities for all
+Peacekeeping Missions in Umoja Foundation Cluster 1 and Cluster 2 deployment (approximately 30 entities). Each cycle consisted of 3 Mock
+Data Conversion/Loads, Dress Rehearsal and Production Load. - Successfully accomplished (until now) Umoja Cluster 3 Data Conversion Load
+Cycles (Mocks 1-3 and Dress Rehearsal) for UNON, UNEP, ESCAP, UN-Habitat, OCHA-Geneva, for Fixed Assets Equipment and Real
+Estate Items. Continuing involvement in Cluster 3 data conversion for production - Successfully supported or completed Product Integration
+Testing (PIT) and User Verification Testing (UVT) cycles for Umoja Cluster 3
+Information Technology Assistant (OSAU) 
+October 2010 to August 2013 Company Name ï¼​ City , State Responsibilities: -Conduct walk-throughs on UN floors to verify Locations, Staff
+and Space configurations. -Assist Project Managers evaluate Vacancies, Overcapacities and Room Type changes. -Interact with Staff in the
+environment to inquire about any changes on the floor and to answer any questions. -Contact Staff and Department Focal Points to confirm any
+discrepancies. -Record and report any discrepancies in Staff Information and make any necessary changes in UN Staff Telephone Directory
+(Untel) and Voice/Data Messaging Service (VMS) Databases. -Record and report any discrepancies in Floor plans and make any necessary
+changes in Aperture -Clean, monitor and maintain Aperture data to assure accurate Floor plans. -Assist Property Management Inventory Control
+Unit with Occasional Inventories and Property Verifications. -Create reports in SQL and Microsoft Access for Project Managers to aide in space
+planning. -Assist AFPS in the cleaning and restructuring of UN Staff Telephone Directory Database (Untel) and processes. -Clean, monitor and
+maintain UN Staff Telephone Directory Database (Untel) and Voice/Data Messaging Service (VMS) Database to assure accurate Staff location
+and information. -Create new staff entries in UN Staff Telephone Directory Database (Untel) and Voice/Data Messaging Service (VMS). -Create
+and run queries in SQL and Microsoft Access to edit databases. -Upload and update Untel and Aperture databases. -Develop Excel
+spreadsheets to calculate and show the statistics of reoccurring problems. -Develop SOP's for my position to help in training efforts. -Develop,
+Create and Maintain Document Management database and online library using visual studios, for department website (vb script &amp; ASP.net). -Beta
+Tester for CAFM. -Assist contractor in the development of CAFM space and asset management system. -Occasionally assist in computer
+hardware and software installation and troubleshooting. -Beta Tester for Umoja Pilot project. -PIT Tester for Umoja using HP ALM and SAP. -
+Data collector for Umoja Pilot Project using templates. Accomplishments: -Granted Administrative rights to Untel and VMS SQL Databases and
+Aperture Floor plans due to my expertise and responsibilities. -Improved efficiency of Inventory process by creating accurate location
+nomenclature in Untel, VMS and Aperture databases. -Increased the accuracy level of Staff Information and Floor plans improving space planning
+occupancy reports. - Performed Database/Website management tasks for a month until the vacant Supervisor post on P3 level was filled. -
+Managed, corrected and improved data, queries and processes resulting in reducing SQL Database issues/ errors by more that 50%. -Worked
+and liaised with software company contractors to assist colleages in fixing errors and improve fuctionality of CAFM system.
+Information Technology Assistant (PMICU) 
+January 2008 to October 2011 Company Name ï¼​ City , State Responsibilities: -Organize all PMICU Stockrooms. -Perform physical inventory
+counts of all PMICU Stockrooms. -Process Work Orders using MP-2 / iNeed (Work order software) -Print Barcodes for all
+Departments/Offices of UNHQ. -Issue andReceive Furniture from PMICU Stockrooms. -Help Staff members find the Furniture that better suites
+there needs. -Coordinate/Arrange furniture relocation to offsite locations. -Supervise 1 to 10 movers during the liquidation of assets for Secretariat
+and Conference building vacate exercise. -Assist with Furniture Disposals and update Procure Plus records accordingly. -Coordinate all IT
+Disposals with OICT and movers and update Procure Plus records accordingly. -Administer IT disposal service contract. -Property Records
+Custodian (for FMS) -Manage Furniture using Procure Plus to Build, Relocate, Transfer and Remove records. -Upload Movers scanners to
+Procure Plus database. -Develop SOPs for each position in PMICU. -Obtain quotes and submit for requisitions -Enter delivered furniture into
+Procure Plus. -Recommend purchases to maintain stockroom counts. Accomplishments: -Granted Administrative rights to Procure Plus SQL
+Database, due to my expertise and responsibilities. -Assigned to be Property Records Custodian for FMS. -Developed Standard Operating
+Procedures for unit, including "Furniture Disposal Process" , "Furniture Issuance Procedure", "Processing PO Orders Procedure", etc. -Developed
+classification system for furniture used in Unit Operations, warehouse and physical inventories based on UNCCS item codes. -Organized multiple
+new offsite stockrooms (45,000 sq ft). -Performed periodic stockroom counts for over 5,000 assets. -Organized relocation of approximately
+10,000 assets between various stockrooms during vacate excercise of Secretariat building. -Handle deliveries of furniture averaging $200,000. -
+Performed Location Verification exercise for entire UNHQ Campus during the 2008 Physical Inventory. -Over 10,000 items identified, scanned
+and updated into Procure Plus thereby affecting $2.4M in official UNHQ inventory. -Assisted in the removal of all the furniture and all abandoned
+property during the liquidation of the Secretariat and Conference buildings(apprx. 630,000sqft). -Relocated, Consolidated and Organized Wood
+furniture into appropriated stockrooms to cut down physical inventory count by more than 50%
+Information Technology Assistant (BCSS) 
+September 2007 to December 2007 Company Name ï¼​ City , State Responsibilities: -Managed a variety of expendable and non-expendable
+audio-visual supplies. -Arranged the contents of the stockroom and receiving areas in a manner that maintains a safe and efficient working
+environment. -Participated in periodic physical inventories of UN equipment to ensure accuracy of serial and barcode numbers. -Surveyed broken
+audio-visual equipment for disposal. -Performed asset management through Procure Plus -Cleaned up data fields in Procure Plus -Enter data on all
+incoming and outgoing expendable and non-expendable stock items. Accomplishments: -Granted Administrative rights to Procure Plus, due to my
+expertise and responsibilities. -Surveyed and Assessed all broken audio-visual equipment for disposal. -Reduced disposal survey times, by 30%,
+by simplifying or streamlining process/procedures. -Assisted in editing IT equipment information in Procure Plus.
+Technical Support Representative 
+July 2005 to September 2007 Company Name ï¼​ City , State Responsibilities: -Managed Inventory of assigned IT products in assigned work
+car. -Assisted in yearly storewide physical inventory -Performed Customer Service. -Performed Client/Technician Phone Support. -Configured
+and Secured Wireless Networks. -Diagnosed computer Hardware and Software issues -Troubleshoooting and Resolving computer problems
+including: Hardware, Software, virus, network, video, etc. -Evaluated needs of clients and sold them necessary computer software solutions.
+Accomplishments: -Recognized as 1 of top 4 agents, promoted twice for excellent customer service. -Increased customer loyalty by 25% -
+Assisted in customer conflict resolution to help reduce customer product/service returns. -Worked efficiently and effectively to cut appointment
+wait time from weeks to 3-5 days.
+QA compliance 
+September 2002 to July 2005 Company Name ï¼​ City , State Responsibilities: - Tracked and managed resources, using Great Plains and MS
+Excel. - Assisted in yearly warehouse inventory. - Organized warehouse stockroom. - Ordered supplies from vendors. - Processed outgoing
+order shipments. - Processed Customer Credit Card Payments. - Processed orders over the phone. - Performed Quality Control. - Ensured
+orders went out correctly and on time - Facilitated employee training. Accomplishments: - Promoted within 3 months of starting. - Put in charge of
+3 persons - Improved work order processing system - Improved speed and efficiency of work order processing by 40%, by simplifying the
+process, and by more efficient work coordination - Created shipping supplies order sheet, ensuring more accurate and faster tracking of supplies -
+Increased profits by increasing productivity - through above improvements, and by own commitment and motivation
+Education
+Certification : Network Security , 2005 The Chubb Institute ï¼​ City , State , US Certification in Network Security The Chubb Institute -
+Westbury, NY 2003 to 2005
+Bachelor of Science : Computer Science &amp; Business Oneonta State University ï¼​ City , State , US Bachelor of Science in Computer Science &amp;
+Business Oneonta State University - Oneonta, NY
+Affiliations
+Foundation Cluster 1 and Cluster 2 deployment (approximately 30 entities). Each cycle consisted of 3 Mock
+Certifications
+Certification in Network Security
+Skills
+Inventory, Database, Excel, Training, Stockroom, Sql, Databases, Sap, Statistics, Operations, Sops, Asset Management, Access, Asp, Asp.net,
+Cafm, Document Management, Inventory Control, Microsoft Access, Ms Access, Ms Asp, P3, Property Management, Restructuring, Space
+Planning, Telephone, Vms, Voice, Credit, Credit Card, Great Plains, Ms Excel, Order Processing, Packing, Payments, Qa, Quality Control,
+Shipping, Warehouse Inventory, Clients, Customer Service, Receptionist, Retail Sales, Solutions, Technical Support, Wireless, Wireless
+Networks, Network Security, Security, Adjustments, Clarify, Data Conversion, Data Validation, Deployment, Fixed Asset, Fixed Assets, Ids,
+Integration, Integration Testing, Integrator, Maintenance, Plant Maintenance, Real Estate, Subject Matter Expert, Testing, Autocad, Database
+Management, Mac, System Development</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Data Science</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/Data Science.xlsx
+++ b/uploads/Data Science.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,98 +415,171 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-ENGINEERING AND QUALITY TECHNICIAN
-Career Overview
-A highly experienced skilled graduate with Analytics degree with a very good experience in SAS, Web scraping, SQL, Predictive modelling and
-data visualization. Excellent ability in identifying data requirements for analysis, data cleaning, munging and model building; Ensures the organization
-uses it effectively to reach profit and growth objectives. Comfortable with data handling, modeling, and coding, and have an appreciation of what
-makes sense from a business standpoint. More than six years of experience working as a researcher, data analyst, and environmental science and
-Technology Instructor. Experience in SQL, data warehousing, maintaining, securing and stabilizing data layers and testing to identify data and
-product defects introduced in the system. Customer segmentation, product positioning and mapping and conjoint analysis Modelling: Design and
-implement statistical / predictive models and cutting edge algorithms utilizing diverse sources of data to predict Diversified experience with
-Engineering, Manufacturing, Retailing, Higher Education and IT /Data related companies Fascinated by learning cutting edge technologies, such as;
-Data Mining and Machine Learning Handled a team of 4 during my 3 years of Tech experience and managed more than 200 students and
-effectively evaluated the performance of each student and utilize assessment methods to judge overall progress during my teaching experience.
-Qualifications
-Ability to identify uncovered information from hidden data and convert to a story and communicate effectively through visualization
-Modelling using R, SAS, Python using Pandas
-Web scraping using Beautiful soup in Python
-Databases like Oracle and Microsoft SQL
-Experience in ASP.NET 4.5, C#, and HTML,
-Statistical software like JMP, SPSS, GIS
-Visualization software like Tableau, ggplot (R)
-Experience in database design for data warehousing environments.
-Modelling using Random Forests, Decision Trees, Boosted Trees, etc.
-Modelling using shrinkage methods, including Ridge, LASSO and Elastic Net regression models.
-Dimension Reduction using PCA
-Outlier analysis, Linear Regression, Clustering techniques, logistic regression
-Work Experience
-01/2013 to 01/2016
-Engineering and Quality Technician Company Name ï¼​ City , State
-Planned, performed and conducted semiconductor production process development and engineering designs as well as managed small
-projects and prepared statements and monitored project schedules.
-Identified product defects introduced in data warehouse by performing quality tests using SQL and JMP.
-Co-ordinated with scientists, engineers, manager, analysts to understand the impacts due to defects and provided valuable information for
-product shipping and customer satisfaction.
-Managed multiple tasks and accomplished goals efficiently and per schedule with a strong work performance to meet the goals of the
-department.
-Monitored and adjusted semiconductor production process or/and equipment for improving quality and productivity and achieved a 10%
-higher performance rate for the fiscal year of 2014.
-Provided technical support in developing, building and testing prototypes, new products, processes and procedures and provided training
-and advice to other Engineering technicians.
-Applied database management and data analysis methods which helped enhancing production efficiency and reduced costs for the
-department by 5% in every quarter.
-01/2007 to 01/2012
-Company Name
-Lecturer in Environmental Science and Technology Effectively engaged in course curriculum development, taught courses and engaged in
-research projects and community services on the areas of Statistics, GIS and natural resource management.
-Developed course material that support the goal of the course including design of curriculum and schedule of instructions, provided student
-with guidance in regards to their grades and progress in the course work and elected as best instructor of the College in 2008.
-Established a GIS laboratory facility with other staff members, provided technical support for environmental remediation projects and for
-legal actions.
-Used SQL and SPSS for managing student database and for analysis of data.
-01/2004 to 01/2006
-Company Name
-Assistant Lecturer in Natural resource management Assisted in teaching, researching and developing methods which helps in improving both
-the university and students' performance.
-Highly engaged in curricular and extra-curricular activities and community services.
-Established and coordinated nature and environmental protection club in the university.
-Developed teaching methodologies and techniques that added to the knowledge base and understanding of resource management by
-preparing teaching materials, handouts and laboratory manuals.
-Engaged in major research projects of resources management which was undertaken in collaboration with Universities, NGOs, and
-engineering consulting companies.
-Served as lead of the college's audiovisual center and arranged workshops, meetings and documented academic resources.
-Education and Training
-May 2017
-Master of Science : Analytics University of New Hampshire USA Analytics 4.0/4.0 Currently working on a project on mapping and clustering of
-student success using clustering, data mining and machine learning predictive modeling techniques for Granite State College (GSC). The objective
-of this project is identifying factors which will help students become successful in their academic achievements and finding ways to improve
-students' retention rates. *Working on UNH hockey team project with a team of 6 people for predicting players' performance. *Undertaken a
-summer project on "Mapping and clustering of Chicago and Seattle city Crime" and we could successfully classify categories with a 90% accuracy.
-Yitayew, Anteneh, Workineh
-GRADUATE STUDENT IN ï¼​ City , State
-April 2010
-Master of Science : Environmental Science and Technology UNESCO-IHE ï¼​ City The Netherlands Environmental Science and Technology
-July 2004
-Bachelor of Science : Resource Management Debub University Ethiopia Resource Management
+INTERNSHIP
+Professional Overview
+experiences collecting and analyzing data with statistical methods, familiar with R and SAS programing, great knowledge of experiment design,
+sampling techniques and documents management. strong skills in communication, group-working and work-planning.
+Core Qualifications
+Strong knowledge of SAS, R and SSPS programming
+Excellent research skills
+Microsoft Word, Excel, PowerPoint
+Excellent quantitative skills
+Team leadership
+Organizational planning
+Leadership/communication skills
+Customer-oriented
+Education
+University of Missouri 2015 Master of Science : Statistics City , State , The United States
+President of Chinese students' and scholars' association
+3.7 GPA
+Coursework in practical statistical models, data analysis 1, 2, 3, statistical software and data analysis, introduction of probability theory, statistical
+inference, time series analysis, survival analysis, experimental design, current development in statistics.
+SAS advanced license
+Thesis/Dissertation
+Projects:
+A.
+Time: from 2014 January to 2014 Match
+Title: the relationship between the mathematical grade of the seventh grade and grades from primary school.
+Brief process: use linear model to fit transformed variables from the data after getting rid of useless columns, choose the most significant variables
+to form the final model based on persuasive diagnostic values.
+Achievements from the project:the mathematical grade of the seventh grade is significantly influenced by the reading, counting and logistic ability at
+the first and second grade in the primary school.
+B.
+Time: from 2014 May to 2014 August
+Title:bike rental prediction
+Brief process: construct the regression model use different statistical method, find the most powerful model decided by finding the least error rate,
+and decide which variables significantly enough to build the model.
+Achievements from the project: use Lasso to make the regression, it gives the least error rate and use the almost original data set, it saves a lot of
+time to deal with the original data set.
+C.
+Time:from 2014 September to October
+Title: Classify Song Release Period
+Brief process: construct the classification model to classify a specific song into the year before or after the year 1986 based on 90 attributes of a
+single song and 6480 songs.
+Achievements from the project: use the Multivariate adaptive regression splines to build the model and based on the final classification model, we
+can conclude that if the song is from before or after on 1986 depends mostly on the artists who create them, secondly on properties they tagged by
+famous music website and finally on properties of their track.
+D.
+Time: from 2014 November to 2014 December
+Title: predict the lightening strikes in July based on the records from January to June.
+Brief process: first cluster the original data based on the lightening strike records and the moisture records with the method of K-mean and
+Hierarchical method. Second use different statistical method like Boosting, Random Forest, Ridge, Lasso, NNET, CART, SVM to find the best
+model to predict the strikes will happen.
+Achievements from the project: we use the K-mean clustering method and based on the moisture data to form the cluster and use the neural
+network is a better way for our prediction to get a smaller MSE, and lightning strike have direct relationship with the soil moisture level and the
+climate indices.
+E.
+Time: from 2014 November to 2014 December
+Title: predict the daily stock price of Netflix Inc. Based on historical daily price records.
+Brief process: use GARCH model to fit the transformed data and finally choose the GARCH plus ARMAR model to make the forecasting.
+Achievements from the project: from the model we can find that there is a up trend in the future about this stock and this is a appropriate time to
+buy this piece of stock.
+Experience
+Company Name May 2014 to August 2014 internship 
+City , State
+Main tasks of this job: Â 
+1.Collect, enter and analyze stock prices: collect useful data and enter them into the database in a correct classification way, use statistical methods
+to analyze them based on R programming.
+2.Predict the future trend of different stocks and divide them into different category: use time series methods to predict the trend
+3.Write summary report: use statistical methods to analyze data with R and write the performance evaluation report based on quantitative facts.
+4.Customer service: answer the phone call and solve customers' problems and do the reception job at the front table. Also offer the instruction
+about stocks and how to choose them to new clients.
+5.design the questionnaire and the get the feedback
+Company Name May 2013 to August 2013 internship 
+City , State
+Main tasks about the job: Â 
+1.data collection and entering: collect financial data and classify them into the correct table and items.
+2.Write summary report: use statistical methods to analyze data with R and write the performance evaluation report based on quantitative facts.
+3.Customer service: answer the phone call and solve customers' problems and do the reception job at the front table.
+4.inventory control: keep record of the number of materials and keep track of the way they out and in.
+5.arrangement the business trip: book the hotel, arrange the schedules for each day, keep track of the budget of the business trip.
+Company Name November 2012 to March 2013 internship 
+City , State
+Main tasks about the job: Â 
+1.data collection and entering: collect financial data and classify them into the correct table and items.
+2.Write summary report: use statistical methods to analyze data with R and write the performance evaluation report based on quantitative facts.
+3.Customer service: answer the phone call and solve customers' problems and do the reception job at the front table.
+4.Meeting preparation: prepare documents need in the meeting, make sure all the participants can come, prepare PowerPoint slides and arrange
+the meeting room.
+5.Introduce production to customers: introduce financial products which the most suitable to the client and persuade them to buy.
+Fellowships and Awards
+1.merit of certificate award for excellent grade which is top 10%
+Time: the spring semester of 2014
+2.merit of certificate award for excellent performance in the position of the leader of executive department of the Chinese students and scholars
+association in the university of Missouri.
+Time: the Fall semester of 2014
+3.merit of certificate award for excellent performance in the position of vice president of the Chinese students and scholars association in the
+university of Missouri.
+time: the Fall semester of 2014-2015
+4.Merit of certificate award for excellent performance in the position of president of the Chinese students and scholars association in the university
+of Missouri.
+time: the spring semester of 2015</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Data Science</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>82</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+CORPORATE BANKING ASSISTANT, INTERN
+Objective
+Dynamic and self-motivated Financial Data Analyst with diverse expertiseÂ in programming, mathematics and finance.Â Has extensive experience
+of assisting in the development and upgrading of database systems and analytical techniques.Â A quick learner who can absorb new ideas and can
+communicate clearly and effectively.
 Skills
-ASP.NET 4.5, academic, Clustering, consulting, curriculum development, customer satisfaction, data analysis, data mining, data warehouse,
-Databases, database, database design, database management, data warehousing, environmental protection, Environmental Science, GIS, HTML,
-instructor, Lecturer, legal, machine learning, managing, materials, meetings, C#, Microsoft SQL, modeling, Natural, Oracle, process development
-and engineering, processes, progress, Python, quality, researching, research, SAS, shipping, SPSS, SQL, Statistics, Tableau, teaching, technical
-support, workshops</v>
-      </c>
-      <c r="C2" t="str">
+Programming Language: C/C++, Python, MATLAB, SQL, R, LUA, VBA
+Machine Learning: Supervised Learning, Unsupervised Learning, Deep Neural Networks
+Finance: Corporate Banking, Financial Forecasting, Financial Analysis
+Language: English, Chinese
+Experience
+Corporate Banking Assistant, Intern 
+May 2015 to August 2015 Company Name ï¼​ City , State
+Wrote commercial mortgage recommendation reports for risk management, including properties appraisals, cash flow analysis, asset
+coverage analysis, RAROC analysis and sensitivity analysis.Â 
+Researched U.S small medium enterprisesÂ using SQL for novel financial products. Made recommendation to senior management with the
+most profitable industry and company size.
+Optimized commercial loan clients information management by developing Updatable Documentation Notification System using VBA , and
+considerably improved efficiency of loan department.
+Office Assisant, Intern 
+June 2012 to August 2012 Company Name ï¼​ City , State
+Developed customers feedback system using VBA to optimize working procedures, and improved working efficiency for Low Interest Rate
+Bond Team by 20%.
+Updated standardized procedures by interviewing employees and building statistic model, and enhanced productivity of the division.
+Undergraduate Researcher 
+March 2011 to May 2012 Company Name ï¼​ City , State
+Created image classification solutions by differentiating background and size of target objects, and improved image processing speed by
+30% as well as cut down the research cost.
+Labeled out wild animals's body coordinates on images, and assisted in developing supervised machine learning algorithm
+forÂ Computational and Informatics Tools for Collaborative Wildlife Monitoring Program.
+Assistant Analyst, Intern 
+June 2010 to July 2010 Company Name ï¼​ City , State
+Researched China mobile market by gathering annual mobile productivity data from Ministry of Industry and Information Technology of
+China, as well as assisted in edition of industry report based on analysis from JP Morgan and Bloomberg.
+Participated in the financial due-diligence of Benshan Media and its subsidiary companies, and developed a time-saving method for the re-
+organization process to different target companies.
+Education
+Master of Science : Computer Engineering , 2016 University of Missouri-Columbia ï¼​ City , State , USA
+Graduate Research Assistantships
+GPA: 3.46/4.0
+Bachelor of Science : Finance and Banking , 2013 University of Missouri-Columbia ï¼​ City , State , USA
+Minor in Mathematics
+Vice President of Chinese Business Student Association</v>
+      </c>
+      <c r="C3" t="str">
         <v>Data Science</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>